--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_124__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_124__Reeval_LHS_Modell_1.2.xlsx
@@ -5948,7 +5948,7 @@
                   <c:v>52.66709136962891</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51.03131866455078</c:v>
+                  <c:v>51.03131103515625</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>52.66709136962891</c:v>
@@ -6029,7 +6029,7 @@
                   <c:v>52.66709136962891</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53.5034294128418</c:v>
+                  <c:v>53.50342178344727</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>52.66709136962891</c:v>
@@ -6116,7 +6116,7 @@
                   <c:v>52.66709136962891</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>52.51206207275391</c:v>
+                  <c:v>52.51206970214844</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>52.66709136962891</c:v>
@@ -6164,7 +6164,7 @@
                   <c:v>64.78528594970703</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>73.81375885009766</c:v>
+                  <c:v>73.81375122070312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7431,7 +7431,7 @@
         <v>97.9389</v>
       </c>
       <c r="F27">
-        <v>51.03131866455078</v>
+        <v>51.03131103515625</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>97.46850000000001</v>
       </c>
       <c r="F54">
-        <v>53.5034294128418</v>
+        <v>53.50342178344727</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>73.425</v>
       </c>
       <c r="F83">
-        <v>52.51206207275391</v>
+        <v>52.51206970214844</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F99">
-        <v>73.81375885009766</v>
+        <v>73.81375122070312</v>
       </c>
     </row>
     <row r="100" spans="1:6">
